--- a/news_data/2015_01.xlsx
+++ b/news_data/2015_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,30 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회장 선거, 직선제를 제안합니다</t>
+  </si>
+  <si>
+    <t>제주도 올해 크루즈 관광객 65만명 유치</t>
+  </si>
+  <si>
+    <t>제주도맛집 세계 관광객들의 눈길을 끌다</t>
+  </si>
+  <si>
+    <t>제주도가 융자 지원하는 관광진흥기금 인기 높다</t>
+  </si>
+  <si>
+    <t>제주도 관광진흥기금 2728억원 신청…융자액의 3배</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본관광시장 활성화 대책 협의회 가동</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제33대 회장 선거 공고</t>
+  </si>
+  <si>
+    <t>제주도, 관광지 사육동물 격리 구제역 차단</t>
+  </si>
+  <si>
     <t>국토부·제주도, 손잡고 제주 원도심 녹색관광도시로 만든다</t>
   </si>
   <si>
@@ -52,13 +76,28 @@
     <t>박성경, 제주도에서 이랜드 쇼핑과 관광 연계 확대</t>
   </si>
   <si>
-    <t>국토부·제주도, 손잡고 제주 원도심 녹색관광도시로 만든다 × 로그인 회원가입 전체기사 실시간 랭킹 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 오피니언 포토 D-TV 착한선진화 제보하기 사진구매 모바일 버전 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 공유하기 페이스북 트위터 카카오톡 주소복사 국토부·제주도, 손잡고 제주 원도심 녹색관광도시로 만든다 입력 2015.01.15 13:52 수정 2015.01.15 13:59 이소희 기자 그린리모델링·도시재생 연계…제주 지역경제 활성화 기대국토교통부와 제주특별자치도가 손을 잡고 그린리모델링 사업 추진을 구체화할 전망이다.국토부와 제주도는 제주 원도심지역의 노후건축물에 대한 그린리모델링을 통해 자연과 문화가 어우러지는 녹색도시를 조성하기 위한 협약을 16일 서울세관에서 체결한다고 15일 밝혔다.이번 협약은 국토부가 추진하고 있는 ‘그린리모델링 사업’과 제주특별자치도의 ‘원도심 도시재생사업’간 연계를 통해 녹색건축물을 전국적으로 확산하기 위한 계기를 마련한다는데 의미가 있다.국토부에서 추진하고 있는 그린리모델링 사업은 정부의 이자지원을 통해 국민들이 초기 공사비용에 대한 부담 없이 창호교체 등 건물성능 개선을 추진할 수 있도록 지원하는 제도로, 건물 에너지 비용 절감뿐 아니라 쾌적한 실내 환경 조성에도 기여하고 있다.제주도는 원희룡 제주지사의 공약인 원도심 도시재생사업의 일환으로 그린리모델링을 연계시켰다. 제주도 원도심 도시재생사업은 제주 읍성, 제주관아 등의 역사문화자원을 복원하고, 노후건축물과 기반시설을 개선해 낙후된 원도심을 관광자원으로 개발하는 것으로, 녹색건축으로 인한 녹색도시·녹색관광이라는 특화시너지를 창출해 지역경제 활성화를 꾀한다는 방침이다.이에 따라 이번 국토부와 제주도의 협약내용에는 국토부가 제주도 지역의 그린리모델링 활성화를 위해 공공 부문 시범사업 추진을 지원하고, 기술 및 정책적 지원을 위해 노력하기로 했다.또 제주도에 대한 건물에너지 통합관리시스템을 구축해 제주도에 종합적인 건축물 에너지정보를 제공한다. 제주도는 원도심 그린리모델링을 활성화하기 위한 도시재생정책 및 실행계획을 수립·추진해 녹색도시 조성에 앞장서고, 녹색건축물 확대보급을 위해 공공건축물 그린리모델링 사업 발굴 및 지역 특성에 적합한 녹색건축물 설계기준을 수립키로 했다.아울러 제로에너지빌딩 조기 활성화와 민간 부문 확산을 유도하기 위해 국토부 제로에너지빌딩 지원센터와도 사업시행자간 선도형 제로에너지빌딩 시범사업 세부이행협약도 체결될 예정이다.국토부와 제주도는 이번 협약을 통해 68조 원 규모인 그린리모델링 시장이 확대되고 제주도의 지역경제가 활성화될 것으로 기대하고 있다. 향후 제주다움이 깃든 녹색도시를 조성하기 위해 다양한 지원과 협업 방안을 함께 마련해 나간다는 계획이다. #국토부·제주도, 손잡고 제주 원도심 녹색관광도시로 만든다 #그린리모델링·도시재생 연계…제주 지역경제 활성화 기대 #제주도 원도심 도시재생사업 #선도형 제로에너지빌딩, 제주도 관광자원 개발 ©(주) 데일리안 무단전재 및 재배포 금지 이소희 기자 (aswith@dailian.co.kr) 기사 모아 보기 &gt; +네이버 구독 0 0 관련기사 이소희 기자가 쓴 기사 더보기 [D:로그인 ] 해양그린수소 시대 여는 선박해양플랜트연구소 해수부, 가을 수산대전…최대 40% 할인 해양오염사고, 부주의 원인이 36.5%로 가장 많아 [인사] 해양수산부 “수산분야 청년취업 지원, 고용유지 17.6%에 불과” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 시사만평 더보기 민주당, "박진 해임하라" 다음엔 "윤석열 사과하라" 다음엔 "김건희?" 한동훈, 5시간 검수완박 위헌 설명…민주당 재판정도 안나오고 뒤에서 고소? 산업부, "10대 그룹 간담회 하자"…'전기요금 올릴께' 김정은 친서 트럼프는 나랑 놀자…문재인 필요없다 [2022 국감] '서울대 양극화' 심화…신입생 3명 중 2명 '수도권 출신' 서울대 신입생 11.9%는 강남 3구 출신 [2022 국감] 9000만원 벤츠 타는 국민임대 입주자?…부적격자 5년간 4만명 육박 [2022 국감] "시세 절반 수준…10년 분양전환 공공임대 공급 재개 필요" [尹 출근길 한마디] "'文 서면조사' 감사원은 독립적 운영 헌법기관…언급 적절치 않아" 감사원, '서해 공무원 피격' 관련 文에 조사 요청해文 "대단히 무례한 짓" 불쾌감 표출…메일 반송도尹 "대통령이 뭐라고 언급하는 것 적절하지 않아""北 무모한 핵도발은 국제사회 결연한 대응 직면" [尹 출근길 한마디] "野 박진 해임안? 능력 탁월한 분…무엇이 더 옳은지 국민이 알 것" [尹 출근길 한마디] "비속어 논란, 사실과 다른 보도로 국민 위험 빠뜨려…진상 밝혀져야" [미디어 브리핑] 검찰 "방통위 직원들, TV조선 평가점수 낮춰 달라고 요구" 검찰 방통위 직원들에게 공무상비밀누설, 직권남용권리행사방해 혐의 등 적용 "심사평가 점수 변경해 TV조선 재승인 막고자 심사위원 세 명 불러 점수 수정 요구""피의자들 수정 사실 숨기고 제출…방통위원장·상임위원, 점수 수정 모르고 조건부 재승인 의결" 일부 심사위원들 검찰 주장에 "점수 수정, 심사위원 개인의 고유 권한…수정했지만 적법했다" 반박 [미디어 브리핑] MBC 제3노조 "尹 비속어 문제라면, 이재명 욕설은 왜 보도 안 했나" [미디어 브리핑] 法 "KBS, 불법 파견직 직접 고용하고 240억원 손해배상" 국민들은 지금? 더보기 尹 지지율 소폭 상승해 35.9%…순방 성과는 부정평가 60% [데일리안 여론조사] 국민 39.2% "김건희만 국감장 나와야"…"文만 나와야" 21.9% [데일리안 여론조사] 경제 많이 본 기사 더보기 1 [특징주] 삼성전자, 1.4나노 양산 선언에 장 초반 강세 2 [특징주] 네이버, 美 1위 중고패션 플랫폼 인수...주가는↓ 3 현대모비스, 車 5G 통신 모듈 개발 성공…자율주행·커넥티드카 시장 '정조준' 4 이재용 삼성 부회장, '副'를 떼야 하는 이유 [박영국의 디스] 5 키움증권 "코스피, 英 감세법 철회 소화…기술적 반등 기대 유효" D-피플라운지 더보기 '소통의 리더' 김성한 DGB생명 사장, 변액보험도 IFRS17도 '유비무환' "소통 그리고 소통."보험 상품 개발과 영업 등 실적과 관련된 물음부터 사내 문화와 미래 비전에 이르기까지, 경영 전반의 어떤 질문에도 김성한 DGB생명보험 사장의 방점은 소통이었다.사람 중심의 기업가 정신을 역설해 온 김 사장에게 올해는 여러모로 기념비적인 한 해다. 수장이 된 이후 줄기차게 추진해 왔던 변액보험 강화 전략이 눈에 띄는 성과를 내고 있고, 연임에 성공하며 경영 능력에 대한 신뢰를 재확인하면서다.김 사장은 지난 7일 데일리안과 만나 연임을 확정한 후 처음 인터뷰를 갖고, 그 동안 최고경영자로서 거둔 성과를 묻는 질문… 특징주 더보기 · 네이버, 美 1위 중고패션 플랫폼 인수...주가는↓ · 삼성전자, 1.4나노 양산 선언에 장 초반 강세 · 더블유씨피, 코스닥 상장 첫날 급락 · 카카오페이, 오케이포스 지분 투자에 강세 · 두산, 협력사 '협동로봇 스마트공장 구축' 지원에 강세 오피니언 더보기 이진곤의 그건 아니지요 민주당의 ‘참사’ ‘탄핵’ 중독증 김규환의 핸디 차이나 ‘習의 야심작’ 일대일로 사업에 메스 대는 중국, 그 속내는 하재근의 이슈분석 돈스파이크, 역대급 방송 흑역사 양경미의 영화로 보는 세상 복고풍 뮤지컬 영화의 흥행 예감 이기선 칼럼 민주당의 힘자랑, 방탄 말고 민생에 [코인뉴스] 美 GDP 연속 역성장 속 비트코인 2700만원대 횡보 이더리움은 190만원선 정체 [코인뉴스] 美 증시 급락해도…비트코인 하락폭 선방 [코인뉴스] 강달러 주춤하자…비트코인 2800만원대 재진입 D-FOCUS 서현우 "'헤어질 결심', 탕웨이 정확한 발음 지도 덕분" 최대훈 "사람들에게 각인되지 않은 이미지, 나는 좋다" 장승조 "'모범형사' 두 시즌 성공, 내게 큰 자부심" 인사·부고·동정 더보기 [인사] 한국자동차연구원 [부고] 홍문기(HJ중공업 대표이사)씨 장인상 [부고] 송영수(전 한진중공업 사장)씨 별세 [인사] 해양수산부 [인사] 금호타이어 오피니언 칼럼 기자의 눈 기고 시사만평 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 비쥬얼 뉴스 포토 D-TV 카드뉴스 Copyright ⓒ ㈜데일리안 All rights reserved. 회사소개 광고제휴문의 개인정보취급방침 저작권 규약 이용약관 임직원복지몰 제호: 데일리안 등록일: 2005.09.13 등록번호: 서울 아00055 발행인: 민병호 편집인: 이상준 주소 : 서울시 강서구 양천로583(우림블루나인 B동 508,509호) 전화 : 02-714-0770 FAX : 02-714-2969</t>
-  </si>
-  <si>
-    <t>제주도 “올 국내외 관광객 1300만명 유치” | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 “올 국내외 관광객 1300만명 유치” 입력 : 2015-01-19 20:44:49 수정 : 2015-01-19 20:44:49 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 지난해보다 5.7% 증가 목표로숙박시설·전세기 운항 등 지원 중국 관광객 3500명이 제주항에 도착, 크루즈선에서 내리고 있다. 세계일보 자료사진 제주도가 올해 연간 관광객 유치 목표를 내국인 920만명, 외국인 380만명 등 1300만명으로 정하고, 다양한 유치 전략을 마련했다. 이는 제주도가 예측한 지난해 연간 관광객 1230만명(내국인 895만명, 335만명)에 비해 5.7% 증가한 것이다. 내국인은 2.8%, 외국인은 13.4% 높여 잡았다. 지난해 유치 목표 1150만명(내국인 900만명, 외국인 250만명)과 비교하면 13% 많다. 19일 제주도에 따르면 올해 아시아 최고의 장기 체류형 휴양 관광지라는 슬로건으로 일본과 동남아시아 관광객을 적극적으로 유치해 중국인에 편중된 제주 방문 외국인 관광객의 국적을 확대할 방침이다. 제주형 뷰티·의료 관광 육성, 크루즈산업의 지역 밀착형 관광상품 전개 등도 추진한다. 제주 관광업계는 유네스코 3관왕 타이틀 획득과 세계 7대 자연경관 선정 등으로 인한 인지도 상승이 국내외 관광객을 유인하는 탄탄한 기반이 된 것으로 보고 있다. 국제 항공 노선 확대, 크루즈선 입항 증가 등도 외국인 관광객 증가에 한몫했다. 지난해 제주 크루즈 관광객은 59만400명으로 집계됐다. 입항 횟수는 242회다. 올해 입항 횟수는 42.1% 늘어난 344회, 여객수는 약 1.89% 늘어난 60만1577명에 이를 것으로 전망했다. 제주도는 세계 각국의 식음료 테마관, 워터파크, 휴양리조트 건설 등 신화역사공원 복합리조트 조성 사업을 지원한다. 숙박시설 개·보수 등 관광진흥기금 융자지원을 기존 1500억원에서 1800억원으로 확대 지원하기로 했다. 이와 함께 중문관광단지 매입과 제주관광공사 시내면세점 입점도 추진하기로 했다. 해외시장 다변화 정책으로, 인도, 러시아, 무슬림 시장 공략을 본격화해 나가는 한편 인도네시아에 홍보사무소를 개소해 운영키로 했다. 또 방콕, 호찌민, 야쿠츠크, 울란바토르를 오가는 전세기 운항을 위해 10억원을 지원한다. 인도∼홍콩∼제주, 마닐라∼상하이∼제주 등 무비자 경유형 상품을 개발하고, 상하이 거점 무비자 및 크루즈 상품 개발을 위해 6억원을 지원할 계획이다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20150119003426 0101030100000 0 2015-01-19 20:44:49 2015-01-19 20:44:49 0 제주도 “올 국내외 관광객 1300만명 유치” 세계일보 제주=임성준 기 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 중양절 음력 9월9일을 중양절(重陽節)이라 한다. 옛부터 홀수, 곧 양수(陽數)가 겹친 길일 가운데 이날을 중시했다. 중구(重九)라고도 한다. 중국에서 유래한 명절이지만 우리나라에서도 신라 때부터 이날에는 군신들의 모임을 열거나 향연을 벌였다. 조선 세종 때는 삼짇날(3월3일)과 중양절을 명절로 공인했다. 중양절에는 늙은 대신들을 위한 잔치인 기로연(耆老宴)을 베 [채희창칼럼] 교육교부금 이대론 안 돼 요즘 전국 초·중·고등학교에서 ‘돈 쓰기 경쟁’이 벌어지고 있다. 서울시교육청은 올해 600억원을 들여 중학교 신입생들에게 태블릿PC 1대씩을 주고 있다. 신종 코로나바이러스 감염증(코로나19) 대응을 내세워 학생들에게 10만∼30만원씩 현금을 뿌린 교육청도 많다. 울산·제주 교육청처럼 2∼3차례나 지급한 곳도 있다. 멀쩡한 교실 바닥을 교체하거나, 단체로 [기자가만난세상] 대우조선 성공적 인수를 바라며 대우조선해양이 23년 만에 새 주인을 맞을 것으로 보인다. 1999년 워크아웃(재무 개선 작업) 이후 2001년 산업은행의 관리에 들어간 뒤 2009년 한화의 인수 무산을 거쳐, 다시 13년 만이다. 방산업체인 한화가 기존 육·공군에서 해군까지 사업 분야를 넓히기 위해 한 번 더 손을 내밀었다. 20년 넘는 표류 끝에 나온 해법은 결국 좋은 주인을 찾아주 [한귀은의멜랑콜리아] ‘오징어게임’을 하지 않는 방법 회식이 있었다. 부동산이 주제는 아니었다. 이슈는 ‘이사’였는데, 이사 이야기는 마치 자석에 이끌리듯 부동산 이야기로 쏠렸다. 오래지 않아 구멍이 생겼다. 나였다. 그들이 이사한 고급 아파트 이름, 나로서는 처음 들어본 것이었다. 같은 도시에 살아도 마치 다른 공간에 사는 것처럼, 다른 시간대를 사는 것처럼 서로 겉돌았다. 나의 무지에 대해 약간의 놀림 섞 HOT뉴스 1 터미네이터 속 ‘심판의 날’ 온다? 2 학생 흡연↑…中, 과일맛 전자담배 퇴출 3 웹망원경, 130억년 전 항성 빛 포착한 듯 4 말기 암 소년 위해 집 앞 몰려든 ‘괴물’들 5 "가장 오래된 이빨 화석 中서 발견" 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
-  </si>
-  <si>
-    <t>제주도, 녹색 건축+녹색 관광 선도 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-04 10:05 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 녹색 건축+녹색 관광 선도 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 녹색 건축+녹색 관광 선도 손혜철 승인 2015.01.16 11:56 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 국토교통부(장관 서승환)와 제주특별자치도(지사 원희룡)는 제주 원도심지역의 노후건축물에 대한 그린리모델링을 통해 자연과 문화가 어우러지는 녹색도시를 조성하기 위한 협약*을 오는 1월 16일, 서울세관에서 체결한다고 밝혔다. * 국토부-제주자치도 간 협약식 : ‘15.1.16(금) 10:00∼10:35, 서울본부세관 이번 협약은 국토교통부의 ‘그린리모델링 사업’과 제주특별자치도의 ‘원도심 도시재생사업’간 연계를 통해 녹색건축물을 전국적으로 확산하기 위한 계기를 마련하고, 제주도를 녹색도시로 조성하여 지역경제 활성화에도 기여할 것으로 기대된다. 국토교통부에서 추진하고 있는 그린리모델링 사업은 정부의 이자지원을 통해 국민들이 초기 공사비용에 대한 부담 없이 창호교체 등 건물성능 개선을 추진할 수 있도록 지원하는 제도로 건물 에너지 비용 절감뿐만 아니라 쾌적한 실내 환경 조성에도 기여하고 있다. 특히, 2014년 총 352건(사업비 규모 557억, ‘14.4월 최초시행)의 그린리모델링 이자지원 사업을 선정하였을 정도로 국민들의 큰 관심을 받고 있으며, 201개의 그린리모델링 사업자를 육성하여 지역경기 활성화 및 고용창출에 기여하고 있다. 제주특별자치도의 공약사업인 원도심 도시재생사업은 제주 읍성, 제주관아 등의 역사문화자원을 복원하고, 노후건축물과 기반시설을 개선하여 낙후된 원도심을 관광자원으로 개발하는 것이다. 국토부-제주특별자치도간 MOU의 세부적인 내용은 다음과 같다. 국토교통부는 제주특별자치도 지역의 그린리모델링 활성화를 위해 공공 부문 시범사업 추진을 지원하고, 기술 및 정책적 지원을 위해 노력한다. 국토교통부는 제주특별자치도에 대한 건물에너지 통합관리시스템을 구축하여 제주특별자치도에 종합적인 건축물 에너지정보를 제공한다. 제주특별자치도는 원도심 그린리모델링을 활성화하기 위한 도시재생정책 및 실행계획을 수립․추진하여 녹색도시 조성에 앞장선다. 제주특별자치도는 녹색건축물 확대보급을 위해 공공건축물 그린리모델링 사업 발굴에 힘쓰며, 지역 특성에 적합한 녹색건축물 설계기준을 수립한다. 또한, 제로에너지빌딩 조기 활성화 및 민간 부문 확산을 유도하기 위해 국토교통부(제로에너지빌딩 지원센터)와 사업시행자간 선도형 제로에너지빌딩 시범사업 세부이행협약도 체결될 예정*이다. * 제로에너지빌딩 시범사업 업무협력 협약식 : ‘15.1.16(금) 11:00∼11:30, 서울본부세관 그리고, 시범사업에 대한 체계적인 지원 및 성공적 운영을 위해 제로에너지빌딩 지원센터(한국건설기술연구원, 에너지관리공단)에 대한 센터 지정식도 협약식과 동시에 진행될 예정이다. 국토부와 제주특별자치도는 금번 협약을 통해 68조 원 규모인 그린리모델링 시장이 확대되고 제주도의 지역경제가 활성화될 것으로 기대한다. 향후 제주다움이 깃든 녹색도시를 조성하기 위해 다양한 지원 방안을 함께 마련해 나갈 계획이다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 손혜철 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1옥천군, 제35회 지용제 둘째 날 ‘제19회 군민 한마음 노래자랑 &amp;향수 콘서트’ 개최 2[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 3나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 4옥천군, 제35회 시(詩)끌북적 문학축제의 ‘다시 지용의 고향에서’로 초대합니다 5[인터뷰] 『아프지 않은 사랑이 어디 있으랴』 첫 산문집 출간한 이은봉 시인! 6단양 대가초,“별이 빛나는 사제동행 힐링캠프”실시 7[영상뉴스] 옥천군 제35회 지용제 ‘詩끌북적 문학축제' 팡파르~ 8‘천안흥타령춤축제 2022’ 86만 명 시민 열광 속 폐막 9옥천군, 제35회 지용제 셋째 날 풍경! 10[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 최신기사 민선8기 제천시장 공약 평가 자문위원회 개최 하동군 옥종면민의 날 및 면민체육대회 4년만에 성료 하동읍민 화합 한마당 잔치 성황리 개최 황갑선 회장,하동군장학재단, 9년째 통큰 장학기금 기탁 하동군, 스피드 행복민원 서비스 시행 정성이 피어나는 생명의 꽃 제40회 금산인삼축제 개막! "서울시 보건의료협의체" 출범, 6개 의약단체 협력 '약자와의 동행' 강화 오늘의 동영상 [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 [영상 / 포토] 옥천군, 제35회 지용제 ‘시(詩)끌북적 문학축제’의 마지막 날 옥천군, 제35회 시(詩)끌북적 문학축제의 ‘다시 지용의 고향에서’로 초대합니다 순창군, 순창장류축제 유튜브크리에이터들과 함께 유튜브로 홍보 강화 [영상뉴스] 옥천군 제35회 지용제 ‘詩끌북적 문학축제' 팡파르~ 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+    <t>제주도관광협회장 선거, 직선제를 제안합니다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회장 선거, 직선제를 제안합니다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 오피니언 기고 제주도관광협회장 선거, 직선제를 제안합니다 김대호 headlinejeju@headlinejeju.co.kr 승인 2015.01.30 12:21 댓글 3 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [기고] 김대호 리서치플러스조사연구소 소장 을미년 새해 벽두부터 지역 경제계의 선거열기가 뜨겁다. 전국 동시 조합장 선거가 언론의 관심을 받지 못하는 가운데에서도 새로운 변화와 비전에 대한 경쟁이 오리의 수면아래 발놀림처럼 바쁘다. 그런 가운데 제주 관광협회장 선거가 대의원총회와 더불어 대의원 투표로 이루어진다는 뉴스는 의아하게 한다. 한때 제주지역의 각 농협의 조합장선거도 대의원들이 뽑을 때도 있었고, 교육감도 교육의원들이 선출하고 그 교육위원들은 도의원이 선출하던 때가 있었다. 현재 직선에 의한 민주화가 이루어진 상황에서는 다 과정이었다고 말할 수 있다. 지금에 와서 몇몇 대의원이 조합장을 선출하고, 교육위원들이 교육감을 선출하고, 주민자치위원들이 도지사를 선출하고, 통일주체국민회의를 만들어서 체육관에서 대통령을 선출하는 것이 가당하기나 한 시대에 살고 있는가? 제주 관광협회장 선거가 아직도 간선제아래에 이루어지는 것은 선출되는 과정에는 모르나 선출된 후의 위상은 달라도 너무 다를 것이다. 1100회원사가 넘는 협회의 장을 선출하는 방식이 대표성을 의심 받는 대의원 몇 명에 의해 이루어지는 것을 회원사 누가 인정할 수 있을 것이며 회원사 혹은 제주도내 관광업체들이 인정하지 않는 대표를 행정당국이 동일수준의 파트너로 인정해 줄 것인가? 또한 제주지역의 관광산업 환경을 보면 직선제로 전환해야 하는 이유는 더욱 뚜렷하다. 내국인 관광객을 대상으로 한 조사에서 재방문 비율은 80%에 이르고, 최근에 연증가율이 떨어지고 있다. 버틀러(Butler)의 관광지 수명주기 이론으로 설명하면 강화기를 지나 정체기 단계로 진입한 상태이다. 중국인 관광객을 비롯한 외국인 관광객은 70~80년대 내국인 관광시장 같은 대량관광시절을 맛보고 있고, 정보매체의 발달로 인한 변화가 관광에도 새로운 패러다임의 복판에 있다. 입도 관광객 1200만 시대에 이미 공항의 시설은 물리적 한계상황에 도달하여 신공항 추가건설에 대한 논의가 일반화 되었고, 그에 따라 양정성장을 지양하고 질적 성장에 역량을 집중하야 한다는 지적은 이미 식상한 지적이 되었다. 그 와중에 늘어나는 중국인 관광객에 대한 결실은 중국기업이나 국내 대기업이 차지한다고 하는 자조의 소리가 일반화 되었다. 앞에서 지적한 저간의 변화에 대응하는 제주관광이 과거처럼 행정 관광청에 의존하여 지속할 수 없는 국면에 다다랐다. 각 업체가 이 국면을 받아들이는 능력에 따라 양극화가 커지고, 업체의 연쇄도산의 위험과 과당경쟁에 의한 손실위험이 커지고 있다. 이럴 때 불현 듯 백마탄 왕자의 출현을 바랄 것인가? 스스로 고난을 극복하고 지속가능하게 할 것인가? 후자가 당연하다면 그 시작은 관광협회장 선거를 직선화하여 지역 회원사의 단결을 이끌어 내고 회원사를 늘리는 것으로 시작하여야 한다. 더 근본적으로 직선제를 해야하는 이유는 회원사가 내는 회비가 입회비와 분기별 회비 등 만만치 않은 회비를 징수하여 거둬들이고 있음에도 관광협회에서 회원사를 위해 피드백 되는 것은 미미하며, 선거권까지 박탈하는 것은 협회의 회원관리에도 문제가 있다. 이로 인한 문제는 제주의 관광산업과 지역경제라는 주제에 대해 보다 많은 진지한 토론과 비전을 논할 기회를 살리지 못한다는 손실도 있다. 본고의 지적이 시기적으로 제도의 개혁을 뒷받침하지 못하여 현제도에 의해서 협화장이 선출될 수 밖에 없는 것을 모르는 바가 아니나 그것도 크게 보면 극복하지 못할 일이 아니다. 혹시 출마 후보 중에 협회장 직선제 공약을 내걸고 제도를 정비하여 사퇴하고, 빠른 시일 내에 직선제에 의한 재선거를 할 가능성은 없는가? 이것이 즐거운 상상으로 끝날지라도 그런 바램을 해본다. &lt;김대호 리서치플러스조사연구소 소장(관광학 박사)&gt; *이 글은 헤드라인제주의 편집방향과 일치하지 않을 수 있습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김대호 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 3 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 관광인 2015-01-30 17:01:39 | 1.***.***.82 더보기 삭제하기 수정하기 화합을 위해 최적의 절충점을 찾아 합의하여 진행해온 선거를 망치지 맙시다.그리고 협회와 관련없는 분이 내용도 모르고, 사실관계도 확인 안하고 글을 쓰는것은 박사라는 칭호와도 어울리지 않다고 봅니다 답글쓰기 6 1 관광인 2015-01-30 16:57:41 | 1.***.***.82 더보기 삭제하기 수정하기 대의원은 당연직과 분과별로 회원업체수,회비분담율을 적용해 선출직을 뽑습니다.잘못된 주장은 오랬동안 논쟁과 분열이 주제였던 선거와 관련해 또다른 갈등을 유발할수 있으니 잘 확인바랍니다. 답글쓰기 6 1 관광인 2015-01-30 16:55:09 | 1.***.***.82 더보기 삭제하기 수정하기 적어도 기고를 할때는 왜 대의원 투표제를 하는지?사실관계를 확인후 하시죠.업체별로 회비 납부액이 다릅니다.대기업계열.영세사업자등 다양하게 회원구성 되어 있어 똑같이 한표달라는 입장과 회비부담금만큼 투표권을 달라.하는 입장이 상반돼 대의원투표제로 가는겁니다. 답글쓰기 6 1 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도맛집 세계 관광객들의 눈길을 끌다 - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 11:11 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 제주도맛집 세계 관광객들의 눈길을 끌다 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 생활경제 유통소비자 제주도맛집 세계 관광객들의 눈길을 끌다 엄정권 기자 승인 2015.01.29 17:46 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [이뉴스투데이 엄정권 기자] 제주도의 매력을 아는 사람들은 해마다 제주도를 찾는다. 이미 세계적 관광 명소로 자리잡은 제주도는 매년 방문객이 증가하면서 최근에는 중국인 관광객을 비롯한 아시아권 외국인 관광객들로 붐비는 추세다.제주도 관광이 인기를 얻는 이유는 아름다운 자연 풍광은 물론 유명 먹거리가 많기 때문이기도 하다.제주도의 풍경을 만끽했다면, 입 안이 살살 녹는 제주도맛집을 찾아가는 건 필수이다.푸른 바다가 보이는 운치 좋은 곳에서 직접 릴 낚싯대로 물고기를 잡아 싱싱한 자연산 활어를 맛볼 수 있는 곳은 제주도 맛집에서만 누릴 수 있는 행복이다. 돌솥게우밥, 매운탕, 자리돔, 고등어회, 오징어회, 갈치 외 제주도 자연산 소라, 전복, 개불 등을 입안에 넣는 순간 살살 녹는다는 표현이 무슨 의미인지 알 수 있다.특히 돌솥게우밥은 전복 내장을 넣어 만든 밥으로 고소하고 담백해 허기진 뱃속을 든든하게 채워줄 수 있다. 또한 회는 무채 위에 올려 깔끔하고 생선회와 무채를 같이 먹으면 산화를 예방, 염분을 흡수하여 항암 역할을 하게 되어 건강까지 챙길 수 있다.관계자는 “큰갯물횟집에 방문하는 관광객들을 대상으로 싱싱한 해산물을 내보이기 위해 많은 신경을 쓰고 있다”면서 “입만 호강하는 것이 아닌 자연과 함께해 눈도 호강할 수 있는 환경을 만들어 관광객들의 만족감을 높이고 있다”고 전했다.회 한점과 소주 한잔을 마신 후 편안하게 대하횟집이 운영하고 있는 펜션에서 편안하게 쉬다 갈 수 있다. 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 엄정권 기자 tastoday@naver.com 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 AI가 여는 100세 건강, 한림원탁토론회에서 듣는다 AI가 여는 100세 건강, 한림원탁토론회에서 듣는다 신한카드, 오는 23일까지 ‘더프리뷰 아트위크’ 신한카드, 오는 23일까지 ‘더프리뷰 아트위크’ BYC, 2022년형 보온의류 출시 BYC, 2022년형 보온의류 출시 파수 ‘랩소디’, 문서중앙화 대체 나서다 파수 ‘랩소디’, 문서중앙화 대체 나서다 충남도 남부민원지원센터 본격 운영 충남도 남부민원지원센터 본격 운영 국내최대요리경연 'NS쿡페스트 익산' 막바지 점검돌입 국내최대요리경연 'NS쿡페스트 익산' 막바지 점검돌입 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1AI가 여는 100세 건강, 한림원탁토론회에서 듣는다 2신한카드, 오는 23일까지 ‘더프리뷰 아트위크’ 3BYC, 2022년형 보온의류 출시 4파수 ‘랩소디’, 문서중앙화 대체 나서다 5충남도 남부민원지원센터 본격 운영 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도가 융자 지원하는 관광진흥기금 인기 높다-국민일보 시사 시사 &gt; 전체기사 제주도가 융자 지원하는 관광진흥기금 인기 높다 입력 : 2015-01-26 17:28 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 융자 지원하는 관광진흥기금이 인기를 끌고 있다. 제주도는 올해 상반기 관광진흥기금 융자신청을 받은 결과 총 129건에 2728억원의 기금 신청이 접수됐다고 26일 밝혔다. 도는 지난달 30일부터 지난 13일까지 융자 신청을 마감했고, 최종 신청된 금액은 융자지원 규모의 3배 가량인 2700억원대로 집계됐다. 관광숙박업과 관광편의시설 건설자금 수요가 72건, 2657억원으로 총 신청액의 97%에 달해 숙박업 편중 현상을 보였다. 세부 신청현황을 보면 관광호텔 20곳 1290억원, 호스텔 31곳 800억원, 가족호텔 7곳 356억원, 관광식당 5곳 54억원, 휴양펜션 4곳 41억원, 박물관 등 5곳 116억원 등이다. 운영자금으로는 낡은 전세버스 교체 36억원, 여행업 운영자금 15억원 등 총 57건 71억원이 신청됐다. 도는 영세 사업체에 실질적인 기금 혜택을 제공하기 위해 상반기 융자 지원 지침을 개정했다고 밝혔다. 이에 따라 개인은 주민등록상 제주도내 3개월 이상 거주자로, 법인의 경우 자본금 50억원 미만으로 신청 자격이 제한되고 있다. 도는 관광숙박시설 공급 과잉이 우려됨에 따라 시설자금 융자 한도와 횟수를 축소하고, 융자상환기간을 단축했다고 설명했다. 또 투자진흥지구 내 관광숙박시설 건설 융자 지원을 배제하는 등 제도개선도 추진했다. 도 관계자는 “사업비 적정성 등을 검토한 후 기금운용심의위원회 심의를 거쳐 최종 확정분을 2월 중순쯤 결정하겠다”고 말했다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다” 국제유가, 주유소 기름값 영향 시점은…제주도, 시차 조사 착수 경기도, 중소기업·도민 대상 지식재산 역량 강화 지원 외국인 노동자 상대 마약 유통, 태국인 무더기 검거 美 명문 스탠퍼드대, 캠퍼스 내 대낮 성폭행 잇따라</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본관광시장 활성화 대책 협의회 가동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 일본관광시장 활성화 대책 협의회 가동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 일본관광시장 활성화 대책 협의회 가동 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.01.25 14:56 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × "현지업체 제주관광상품 홍보 지원" 제주특별자치도와 제주도관광협회(회장 김영진)가 침체되고 있는 일본관광시장 활성화를 위해 '일본인 관광객 유치 활성화 대책 협의회'를 구성해 본격 가동에 들어갔다. 협의회는 제주도, 관광협회, 제주관광공사, 관광업계, 항공사 관계자 등으로 구성돼, 이날 첫 회의를 갖고 일본인 관광객 유치와 제주-일본 간 직항노선 활성화를 위해 방안을 논의했다. 또 앞으로 최우선으로 해결해야 할 과제로 ▲일본 현지 여행업체에서 실질적인 관광객 모객에 필요한 제주관광상품 홍보지원 ▲대규모 제주관광설명회 개최 ▲제주국제관광마라톤축제 일본 참가자 유치 마케팅 ▲민간관광단체 간 관광객 유치를 위한 협력교류 전개 ▲일본지역 대형여행사를 통한 유치 마케팅 지원 ▲직항노선 유지 및 도내 여행업계 아웃바운드 상품개발을 위한 항공사의 지원 등을 설정해 이를 중점 추진키로 했다. 제주도와 관광협회는 앞으로 실질적으로 일본 관광시장의 활성화에 활력을 불어넣기 위해 일본 현지의 관광 민간단체 및 업계 등과의 유기적인 네트워크 체제를 강화하고 기관․단체․업계가 협업하는 제주관광마케팅 활동에 총력을 기울여 나갈 계획이다. 관광협회 관게자는 "지속되고 있는 엔저현상 및 외교적 마찰 등 여러 가지 악재로 인한 일본 관광시장의 장기 침체 속에 살얼음을 걷는 듯한 마음으로 민․관․단체가 함께 어려움을 극복해 나가기 위해 협의회를 구성하게 됐다"며 "앞으로 매달 정례회의를 개최해 긴급 현안을 논의하며 해결해 나갈 계획"이라고 말했다. 지난해 제주를 찾은 일본인 관광객은 9만6519명으로 2013년 12만8879명에 비해 25,1%가 감소했다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제33대 회장 선거 공고 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 제33대 회장 선거 공고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 제33대 회장 선거 공고 기자명 고연정 기자 입력 2015.01.23 11:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2월2일~3일 입후보자 접수…2월13일 회장 선거 [제주도민일보=고연정 기자] 제주도관광협회 선거관리위원회(위원장 문대림)가 제33대 회장선거 일정을 확정지었다.도관광협회 제33대 회장 선거일은 2월13일이다. 2월2일부터 2월3일 오후 6시까지 입후보자 접수를 받는다.회장의 자격은 도내·외 거주를 불문하고 관광마인드, 지식, 사업경험, 리더쉽과 덕망이 있는 인사로 관광진흥법 제7조(결격사유)에 해당되지 않는 자여야 한다.제출서류는 입후보신청서 1부와 등록금 2000만원 납부증서, 이력서 1부, 주민등록초본 및 등본 1부, 추천서 1부(관광협회 회원의 의무를 다한 50인 이상 추천), 자기소개서 1부 등이다.제주도관광협회장 선거 투표 자격은 도관광협회 대의원 중 지난해 4/4분기까지 부과된 회비를 대의원총회 소집 전일인 2월12일까지 완납한 대의원에 한해 부여된다. 단, 대의원 본인이 직접 투표해야 한다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>국토부·제주도, 손잡고 제주 원도심 녹색관광도시로 만든다 × 로그인 회원가입 전체기사 실시간 랭킹 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 오피니언 포토 D-TV 착한선진화 제보하기 사진구매 모바일 버전 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 공유하기 페이스북 트위터 카카오톡 주소복사 국토부·제주도, 손잡고 제주 원도심 녹색관광도시로 만든다 입력 2015.01.15 13:52 수정 2015.01.15 13:59 이소희 기자 그린리모델링·도시재생 연계…제주 지역경제 활성화 기대국토교통부와 제주특별자치도가 손을 잡고 그린리모델링 사업 추진을 구체화할 전망이다.국토부와 제주도는 제주 원도심지역의 노후건축물에 대한 그린리모델링을 통해 자연과 문화가 어우러지는 녹색도시를 조성하기 위한 협약을 16일 서울세관에서 체결한다고 15일 밝혔다.이번 협약은 국토부가 추진하고 있는 ‘그린리모델링 사업’과 제주특별자치도의 ‘원도심 도시재생사업’간 연계를 통해 녹색건축물을 전국적으로 확산하기 위한 계기를 마련한다는데 의미가 있다.국토부에서 추진하고 있는 그린리모델링 사업은 정부의 이자지원을 통해 국민들이 초기 공사비용에 대한 부담 없이 창호교체 등 건물성능 개선을 추진할 수 있도록 지원하는 제도로, 건물 에너지 비용 절감뿐 아니라 쾌적한 실내 환경 조성에도 기여하고 있다.제주도는 원희룡 제주지사의 공약인 원도심 도시재생사업의 일환으로 그린리모델링을 연계시켰다. 제주도 원도심 도시재생사업은 제주 읍성, 제주관아 등의 역사문화자원을 복원하고, 노후건축물과 기반시설을 개선해 낙후된 원도심을 관광자원으로 개발하는 것으로, 녹색건축으로 인한 녹색도시·녹색관광이라는 특화시너지를 창출해 지역경제 활성화를 꾀한다는 방침이다.이에 따라 이번 국토부와 제주도의 협약내용에는 국토부가 제주도 지역의 그린리모델링 활성화를 위해 공공 부문 시범사업 추진을 지원하고, 기술 및 정책적 지원을 위해 노력하기로 했다.또 제주도에 대한 건물에너지 통합관리시스템을 구축해 제주도에 종합적인 건축물 에너지정보를 제공한다. 제주도는 원도심 그린리모델링을 활성화하기 위한 도시재생정책 및 실행계획을 수립·추진해 녹색도시 조성에 앞장서고, 녹색건축물 확대보급을 위해 공공건축물 그린리모델링 사업 발굴 및 지역 특성에 적합한 녹색건축물 설계기준을 수립키로 했다.아울러 제로에너지빌딩 조기 활성화와 민간 부문 확산을 유도하기 위해 국토부 제로에너지빌딩 지원센터와도 사업시행자간 선도형 제로에너지빌딩 시범사업 세부이행협약도 체결될 예정이다.국토부와 제주도는 이번 협약을 통해 68조 원 규모인 그린리모델링 시장이 확대되고 제주도의 지역경제가 활성화될 것으로 기대하고 있다. 향후 제주다움이 깃든 녹색도시를 조성하기 위해 다양한 지원과 협업 방안을 함께 마련해 나간다는 계획이다. #국토부·제주도, 손잡고 제주 원도심 녹색관광도시로 만든다 #그린리모델링·도시재생 연계…제주 지역경제 활성화 기대 #제주도 원도심 도시재생사업 #선도형 제로에너지빌딩, 제주도 관광자원 개발 ©(주) 데일리안 무단전재 및 재배포 금지 이소희 기자 (aswith@dailian.co.kr) 기사 모아 보기 &gt; +네이버 구독 0 0 관련기사 이소희 기자가 쓴 기사 더보기 어촌신활력증진사업, 어촌 공모 본격화 음식폐기물 t당 13만원 처리단가 결정, 공정거래법 위반 해수부, 15개 시·군 여성어업인 특화건강검진 실시 [2022 국감] “해외리콜제품 국내에 버젓이 유통돼” [인사] 공정거래위원회 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 시사만평 더보기 삼성전자, 위기에 이성전자될라?…대만 TSMC의 역전 국민의힘 이젠 '훌훌'…이준석의 잘못 배운 정치 발목잡기에 '허송세월' 이게 뭡니까?…실수? 실력? 국군의 현무-2C 낙탄이라니? 국감 첫날, 국감장이야? 막장이야?…고성만 '난무' 국감 증인선서 하는 최재해 감사원장 최재해 감사원장이 11일 오전 서울 여의도 국회에서 열린 국회 법제사법위원회의 감사원에 대한 국정감사에서 증인선서를 하고 있다. 국정감사 출석한 최재해 감사원장 국감 출석해 마스크 만지는 유병호 감사원 사무총장 [尹 출근길 한마디] "북핵 위협 견고히 대응…국민들, 걱정 말고 생업에 진력 다 하시길" "한미동맹·한미일 안보협력 바탕으로 잘 대비·대응'담대한 구상' 유효…北, 핵 통해 얻을 수 있는 것 없어전술핵, 한미가 조야 여러 의견 경청하고 따져보는 중이재명 '친일' 비판? 현명한 국민들이 잘 판단하실 것" [尹 출근길 한마디] "여가부 폐지는 여성·사회적 약자 보호 더 강화하기 위한 것" [尹 출근길 한마디] "한미동맹·한미일 안보협력 바탕으로 국민 안전 빈틈 없이 지킬 것" [미디어 브리핑] 서울시 감사위 "TBS 공정·객관성 개선 안 돼"…최종 경고 서울시 '미디어재단 TBS 기관운영 감사' 결과 보고서 공개감사위 "서울시민 세금 재원 운영…자금 집행 투명성 저해"최종적으로 '기관 경고'와 '기관장 경고' [미디어 브리핑] 검찰 "방통위 직원들, TV조선 평가점수 낮춰 달라고 요구" [미디어 브리핑] MBC 제3노조 "尹 비속어 문제라면, 이재명 욕설은 왜 보도 안 했나" 국민들은 지금? 더보기 尹 지지율 소폭 상승해 35.9%…순방 성과는 부정평가 60% [데일리안 여론조사] 국민 39.2% "김건희만 국감장 나와야"…"文만 나와야" 21.9% [데일리안 여론조사] 경제 많이 본 기사 더보기 1 ‘원통형’이 배터리 업계 효자로 등극한 이유는 2 [2022 국감] 이복현 금감원장 "금융사고 강력 대응·엄중 조치" 3 [2022 국감] 10조 수상한 해외송금 검사 이달 마무리 4 애경산업 AGE20’s, '노블 글로우 커버 쿠션' 출시 5 [D-시사만평] 삼성전자, 위기에 이성전자될라?…대만 TSMC의 역전 D-피플라운지 더보기 '소통의 리더' 김성한 DGB생명 사장, 변액보험도 IFRS17도 '유비무환' "소통 그리고 소통."보험 상품 개발과 영업 등 실적과 관련된 물음부터 사내 문화와 미래 비전에 이르기까지, 경영 전반의 어떤 질문에도 김성한 DGB생명보험 사장의 방점은 소통이었다.사람 중심의 기업가 정신을 역설해 온 김 사장에게 올해는 여러모로 기념비적인 한 해다. 수장이 된 이후 줄기차게 추진해 왔던 변액보험 강화 전략이 눈에 띄는 성과를 내고 있고, 연임에 성공하며 경영 능력에 대한 신뢰를 재확인하면서다.김 사장은 지난 7일 데일리안과 만나 연임을 확정한 후 처음 인터뷰를 갖고, 그 동안 최고경영자로서 거둔 성과를 묻는 질문… 특징주 더보기 · 삼성전자, 3분기 ‘어닝쇼크’에도 상승 반전 · 모델솔루션, 코스닥 상장 첫날 강세 · 삼성전자, 3Q 영업익 어닝쇼크에 1%대↓ · 현대모비스, 美 전동화 생산거점 구축에 '강세' · 삼성전자, 메모리 반도체 감산 無검토 소식에 '강세' 오피니언 더보기 서진형의 부동산포커스 갈 길이 먼 재건축초과이익환수제도 김규환의 핸디 차이나 中 정치국 상무위원 후보 후춘화·딩쉐샹·천민얼은 누구? 이진곤의 그건 아니지요 이재명 자신의 ‘형수 욕설’보다 더 ‘극단적’인 게 있을까? 하재근의 이슈분석 박민영, 헤어졌으면 그만 아닌가 정기수 칼럼 ‘역대 최악 영부인’ 김정숙, 수사 필요하다 [코인뉴스] 비트코인 2700만원대 깨지나…탄탄한 美 고용에 ‘휘청’ 실업률 3.5%로 지난달 대비 하락연준 긴축 속도조절론 기대감 꺾이며 하방 압력 [코인뉴스] 연준 매파적 발언 영향?...비트코인 2800만원대 약세 [코인뉴스] 상승세 보인 비트코인, 2900만원 장벽에 가로막혀 D-FOCUS 서현우 "'헤어질 결심', 탕웨이 정확한 발음 지도 덕분" 최대훈 "사람들에게 각인되지 않은 이미지, 나는 좋다" 장승조 "'모범형사' 두 시즌 성공, 내게 큰 자부심" 인사·부고·동정 더보기 [부고] 성인모(한국금융투자협회 수석전무)씨 부친상 [인사] 기재부 [부고] 이정렬(반도건설 대표)씨 모친상 [인사] 공정거래위원회 [인사] 금융위원회 오피니언 칼럼 기자의 눈 기고 시사만평 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 비쥬얼 뉴스 포토 D-TV 카드뉴스 Copyright ⓒ ㈜데일리안 All rights reserved. 회사소개 광고제휴문의 개인정보취급방침 저작권 규약 이용약관 임직원복지몰 제호: 데일리안 등록일: 2005.09.13 등록번호: 서울 아00055 발행인: 민병호 편집인: 이상준 주소 : 서울시 강서구 양천로583(우림블루나인 B동 508,509호) 전화 : 02-714-0770 FAX : 02-714-2969</t>
+  </si>
+  <si>
+    <t>제주도 “올 국내외 관광객 1300만명 유치” | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 “올 국내외 관광객 1300만명 유치” 입력 : 2015-01-19 20:44:49 수정 : 2015-01-19 20:44:49 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 지난해보다 5.7% 증가 목표로숙박시설·전세기 운항 등 지원 중국 관광객 3500명이 제주항에 도착, 크루즈선에서 내리고 있다. 세계일보 자료사진 제주도가 올해 연간 관광객 유치 목표를 내국인 920만명, 외국인 380만명 등 1300만명으로 정하고, 다양한 유치 전략을 마련했다. 이는 제주도가 예측한 지난해 연간 관광객 1230만명(내국인 895만명, 335만명)에 비해 5.7% 증가한 것이다. 내국인은 2.8%, 외국인은 13.4% 높여 잡았다. 지난해 유치 목표 1150만명(내국인 900만명, 외국인 250만명)과 비교하면 13% 많다. 19일 제주도에 따르면 올해 아시아 최고의 장기 체류형 휴양 관광지라는 슬로건으로 일본과 동남아시아 관광객을 적극적으로 유치해 중국인에 편중된 제주 방문 외국인 관광객의 국적을 확대할 방침이다. 제주형 뷰티·의료 관광 육성, 크루즈산업의 지역 밀착형 관광상품 전개 등도 추진한다. 제주 관광업계는 유네스코 3관왕 타이틀 획득과 세계 7대 자연경관 선정 등으로 인한 인지도 상승이 국내외 관광객을 유인하는 탄탄한 기반이 된 것으로 보고 있다. 국제 항공 노선 확대, 크루즈선 입항 증가 등도 외국인 관광객 증가에 한몫했다. 지난해 제주 크루즈 관광객은 59만400명으로 집계됐다. 입항 횟수는 242회다. 올해 입항 횟수는 42.1% 늘어난 344회, 여객수는 약 1.89% 늘어난 60만1577명에 이를 것으로 전망했다. 제주도는 세계 각국의 식음료 테마관, 워터파크, 휴양리조트 건설 등 신화역사공원 복합리조트 조성 사업을 지원한다. 숙박시설 개·보수 등 관광진흥기금 융자지원을 기존 1500억원에서 1800억원으로 확대 지원하기로 했다. 이와 함께 중문관광단지 매입과 제주관광공사 시내면세점 입점도 추진하기로 했다. 해외시장 다변화 정책으로, 인도, 러시아, 무슬림 시장 공략을 본격화해 나가는 한편 인도네시아에 홍보사무소를 개소해 운영키로 했다. 또 방콕, 호찌민, 야쿠츠크, 울란바토르를 오가는 전세기 운항을 위해 10억원을 지원한다. 인도∼홍콩∼제주, 마닐라∼상하이∼제주 등 무비자 경유형 상품을 개발하고, 상하이 거점 무비자 및 크루즈 상품 개발을 위해 6억원을 지원할 계획이다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20150119003426 0101030100000 0 2015-01-19 20:44:49 2015-01-19 20:44:49 0 제주도 “올 국내외 관광객 1300만명 유치” 세계일보 제주=임성준 기 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, 녹색 건축+녹색 관광 선도 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 10:50 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 녹색 건축+녹색 관광 선도 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 녹색 건축+녹색 관광 선도 손혜철 승인 2015.01.16 11:56 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 국토교통부(장관 서승환)와 제주특별자치도(지사 원희룡)는 제주 원도심지역의 노후건축물에 대한 그린리모델링을 통해 자연과 문화가 어우러지는 녹색도시를 조성하기 위한 협약*을 오는 1월 16일, 서울세관에서 체결한다고 밝혔다. * 국토부-제주자치도 간 협약식 : ‘15.1.16(금) 10:00∼10:35, 서울본부세관 이번 협약은 국토교통부의 ‘그린리모델링 사업’과 제주특별자치도의 ‘원도심 도시재생사업’간 연계를 통해 녹색건축물을 전국적으로 확산하기 위한 계기를 마련하고, 제주도를 녹색도시로 조성하여 지역경제 활성화에도 기여할 것으로 기대된다. 국토교통부에서 추진하고 있는 그린리모델링 사업은 정부의 이자지원을 통해 국민들이 초기 공사비용에 대한 부담 없이 창호교체 등 건물성능 개선을 추진할 수 있도록 지원하는 제도로 건물 에너지 비용 절감뿐만 아니라 쾌적한 실내 환경 조성에도 기여하고 있다. 특히, 2014년 총 352건(사업비 규모 557억, ‘14.4월 최초시행)의 그린리모델링 이자지원 사업을 선정하였을 정도로 국민들의 큰 관심을 받고 있으며, 201개의 그린리모델링 사업자를 육성하여 지역경기 활성화 및 고용창출에 기여하고 있다. 제주특별자치도의 공약사업인 원도심 도시재생사업은 제주 읍성, 제주관아 등의 역사문화자원을 복원하고, 노후건축물과 기반시설을 개선하여 낙후된 원도심을 관광자원으로 개발하는 것이다. 국토부-제주특별자치도간 MOU의 세부적인 내용은 다음과 같다. 국토교통부는 제주특별자치도 지역의 그린리모델링 활성화를 위해 공공 부문 시범사업 추진을 지원하고, 기술 및 정책적 지원을 위해 노력한다. 국토교통부는 제주특별자치도에 대한 건물에너지 통합관리시스템을 구축하여 제주특별자치도에 종합적인 건축물 에너지정보를 제공한다. 제주특별자치도는 원도심 그린리모델링을 활성화하기 위한 도시재생정책 및 실행계획을 수립․추진하여 녹색도시 조성에 앞장선다. 제주특별자치도는 녹색건축물 확대보급을 위해 공공건축물 그린리모델링 사업 발굴에 힘쓰며, 지역 특성에 적합한 녹색건축물 설계기준을 수립한다. 또한, 제로에너지빌딩 조기 활성화 및 민간 부문 확산을 유도하기 위해 국토교통부(제로에너지빌딩 지원센터)와 사업시행자간 선도형 제로에너지빌딩 시범사업 세부이행협약도 체결될 예정*이다. * 제로에너지빌딩 시범사업 업무협력 협약식 : ‘15.1.16(금) 11:00∼11:30, 서울본부세관 그리고, 시범사업에 대한 체계적인 지원 및 성공적 운영을 위해 제로에너지빌딩 지원센터(한국건설기술연구원, 에너지관리공단)에 대한 센터 지정식도 협약식과 동시에 진행될 예정이다. 국토부와 제주특별자치도는 금번 협약을 통해 68조 원 규모인 그린리모델링 시장이 확대되고 제주도의 지역경제가 활성화될 것으로 기대한다. 향후 제주다움이 깃든 녹색도시를 조성하기 위해 다양한 지원 방안을 함께 마련해 나갈 계획이다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 손혜철 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 옥천군, ‘정신건강의 날’ 및 옥천군정신건강복지센터 개소 10주년 기념 행사 개최 보은군 삼승면지역사회보장협의체, 독거노인 주거환경 개선 사업 앞장 보은군, 제37회 보은사우회 정기회원전 성료 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
   </si>
   <si>
     <t>"제주도 구제역 비상…예방 차원 체험관광지 돼지ㆍ노루 등 격리"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 지자체 제주도 구제역 비상…예방 차원 체험관광지 돼지ㆍ노루 등 격리 2015.01.18 11:01 ［헤럴드경제］제주 지역 구제역 확산을 막기 위해 관광지에 있는 관람용 가축인 돼지, 양, 노루 등이 격리 조치됐다.제주도는 관광객에 의한 구제역 유입을 막기 위해 관광지에 있는 모든 우제류(발굽이 둘로 갈라진 동물) 가축과 노루에 대한 격리 조치를 시행한다고 18일 밝혔다.격리 조치된 관광지별 우제류 가축은 휴애리자연생활공원 돼지 150마리, 성읍민속마을 돼지 25마리, 명도암관광휴양목장 면양 26마리와 산양 2마리, 애월양떼목장 면양 12마리, 제주민속촌 소·돼지·산양 각 2마리 등이다.제주시에서 운영하는 절물생태관리소 노루생태관찰원도 우제류인 노루를 보호하기 위해 이날부터 관람객의 출입을 전면 통제했다.노루생태관찰원은 지난해 12월 3일 충북 진천에서 처음 구제역이 발생하자마자 지금까지 관람객이 직접 노루에게 먹이를 주는 체험 활동을 금지했었다.현재 노루생태관찰원 내에는 115마리의 노루가 서식하고 있다.도는 구제역 청정지역 사수를 위한 고강도 특별방역대책을 추진하면서 이번에 제1종 바이러스성 법정전염병인 구제역이 관람객들에 의해 전파되는 것을 차단하고자 이 같은 조치를 취했다고 설명했다.관광지 내 우제류 가축이나 노루생태관찰원 노루에 대한 격리 조치는 구제역이 진정될 때까지 계속된다.도 관계자는 “관광지 내 우제류 가축과 노루를 건강하고 안전하게보호해 또다시 볼거리를 제공하려는 조치인 만큼 도민과 관광객이 적극적으로 협조해달라”고 당부했다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
@@ -67,13 +106,13 @@
     <t>"제주도 관광산업 인프라 구축에 따른 수익형 호텔 ‘비스타케이 3차’"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 일반기사 제주도 관광산업 인프라 구축에 따른 수익형 호텔 ‘비스타케이 3차’ 2015.01.12 10:41 전세계적으로 관광, 레저산업이 폭발적인 급성장을 하게 되면서 자연스럽게 천혜의 관광단지로 제주도가 세계인의 주목을 받고 있다. 지난해 제주도는 관광객 1450만명을 돌파하며 하와이. 발리. 오키나와등 세계 유명 관광지도 넘지 못한 대기록을 달성했다.그에 반해 숙박시설의 부족으로 관광객 유치가 어려운 상황에서 숙박시설 확충을 위한 한시적인대책이 마련됐다.그에 힘입어 비스타케이 호텔그룹에서는 제주도 서귀포시에 비스타케이 1차, 비스타케이 2차 호텔을 성공적으로 분양완료하고 세 번째 수익형호텔 비스타케이 3차 모델하우스를 강남에 오픈했다.비스타케이 1차는 올 3월에 오픈예정으로 오픈 준비작업에 돌입했다. 따라서 1차를 계약한 투자자는 3월이면 수익이 발생 되는 시점에 도래했다.제주 비스타케이 호텔은 실투자금 대비 5년간 연 16%확정수익을 보장하며, 5년후 연 14%+ α 수익을 추가 지급한다. 실투자금은 5000만원대 소액투자로 80%이상의 높은 분양율을 보이고 있다.분양가격은 1억~1억 4000만원대이며 계약금 10%, 중도금 60% 전액 무이자융자, 잔금 30%(2016년 9월 준공시)로 준공후 융자이자를 연 5%로 10년간 지원하는 등 다양한 금융혜택을 준다.또한 업계 최초로 계약금 10%에 대한 수익금을 연간 17%로 준공시까지 지급하는 파격적인 조건으로 진행하고 있어 많은 투자자들의 이목이 집중되고 있다.예를 들면, 계약금 1500만원에 대한 수익금이 매월 25만원이 준공시까지 지급된다.단, 수익금 선지급은 한정세대이기 때문에 발 빠르게 움직이면 연 17%라는 혜택을 받을 수 있다.제주 비스타케이 3차는 특급호텔 수준으로 지하 2층~지상 10층 규모로 총 312객실로 이루어져 있으며 카페테리아, 비즈니스센터, 레스토랑, 휘트니스센터, 발마사지샵 등을 갖춘다. 옥상에는 서귀포 앞바다를 조망할 수 있는 사계절용 노천 자쿠지가 조성된다. 또한 천지연폭포와 서귀포 관광미항을 걸어서 갈 수 있는 거리에 있어 개발호재에 따른 시세차익까지 노려볼 만하다.또한 2014년 7월 일반상업지역에서 더 이상 수익형 호텔을 건축할 수 없는 총량제가 시행되고 있어 수익형 호텔을 분양 받을 수 있는 마지막 기회이다. 따라서 적은 소액으로 세계 최고의 명품호텔을 소유할 마지막 찬스다.계약자 혜택으로는 연간 14일 무료숙박이 가능하며 비스타케이 호텔뿐만 아니라 세계 최대 글로벌호텔그룹과의 연계로 전세계 호텔 및 리조트와 크루즈를 교환 이용할 수 있는 것도 큰 장점이다.이 호텔은 윈덤그룹의 자회사인 RCI사와 제휴되어 있다. RCI는 전세계 100여개국 4500개 이상의 리조트와 호텔 제휴 네트워크를 형성하고 있어 비스타케이호텔의 계약자는 동일한 혜택을 받을 수 있다.자금관리는 생보부동산신탁에서 안전하게 관리하며 중도금 전액 무이자이기 때문에 계약금 외 준공때까지 투자비용이 일체 없다. 각 호실 신청금은 100만원으로 미계약시 전액 환불된다.방문예약 고객들에게는 제주 비스타케이호텔 1차를 이용할 수 있는 2박 3일 숙박권을 증정하고 있다.예약 문의) 1800-5780온라인뉴스팀/onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
   </si>
   <si>
-    <t>제주도, 구제역 여파 관광지 관람용 우제류 격리조치 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 구제역 여파 관광지 관람용 우제류 격리조치 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 구제역 여파 관광지 관람용 우제류 격리조치 기자명 고나연 기자 입력 2015.01.18 13:09 수정 2015.01.18 13:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도는 전국적 확산일로인 구제역 여파를 차단하기 위해 도내 관광지내 관람용 우제류 221마리를 격리 조치한다고 18일 밝혔다.도에 따르면 지난해 12월 충북 진천에서 최초 발생한 구제역이 올해 충남, 경기, 경북, 세종 등 총 5개 시도, 12개 시군에서 52건이 발생하는 등 타 시도에서 점차 확산되어 가는 양상을 보임에 따라 질병의 유입차단을 위해 이 같이 도내 주요 관광지내 관람용 우제류 가축(소․돼지 등)에 대하여 격리한다.방역조치 강화를 위해 구제역 청정지역 사수를 위한 초강도 특별방역대책 추진계획에 따라 관람객으로부터 구제역 바이러스가 우제류 가축에게 전파시킬 위험이 있어 방역상 격리․사육토록 조치한다. 관계자는 "우제류 가축 격리조치는 관광지내 가축을 건강하고 온전하게 보호해 도민과 관광객에게 다시 볼거리를 제공하기 위한 조치인 만큼 도민과 관광객의 적극적인 협조"를 당부했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>국토교통부·제주특별자치도 협업 - 제주도, “녹색 건축+녹색 관광” 선도한다! - 보도자료 | 브리핑룸 | 뉴스 | 대한민국 정책브리핑 본문 바로가기 메인메뉴 바로가기 이 누리집은 대한민국 공식 전자정부 누리집입니다. 검색어 입력내용삭제 검색 상세검색 Search 검색폼 검색어 입력내용삭제 검색 상세검색열기 검색기간 전체 1주 1달 1년 검색시작년월일입력 시작날짜 달력 팝업 열기 ~ 검색마지막년월일입력 끝날짜 달력 팝업 열기 검색범위 전체 제목 본문 첨부파일 기관별 부처 감사원 고용노동부 과학기술정보통신부 교육부 국가보훈처 국무조정실 국방부 국토교통부 기획재정부 농림축산식품부 문화체육관광부 법무부 법제처 보건복지부 산업통상자원부 식품의약품안전처 여성가족부 외교부 인사혁신처 제20대 대통령실 중소벤처기업부 통일부 해양수산부 행정안전부 환경부 청 경찰청 관세청 국세청 기상청 농촌진흥청 대검찰청 문화재청 방위사업청 병무청 산림청 새만금개발청 소방청 조달청 질병관리청 통계청 특허청 해양경찰청 행정중심복합도시건설청 위원회 개인정보보호위원회 공정거래위원회 국가인권위원회 국민권익위원회 금융위원회 방송통신위원회 원자력안전위원회 중앙선거관리위원회 유형별 정책뉴스 웹툰 카드/한컷 포토 부처동영상 KTV 사실은 이렇습니다 국민이 말하는 정책 기고/칼럼 보도자료 브리핑 정책 오디오 전문자료 연설문 전자책 국정신문 선택한 항목 초기화 상세검색 상세검색 닫기 새출발기금 전세피해 지원 실외 마스크 해제 2가 백신 검색 닫기 페이스북 바로가기 트위터 바로가기 네이버포스트 바로가기 유튜브 바로가기 공직메일 제 20대 대통령실 전체메뉴 Sitemap 뉴스 정책뉴스 카드/한컷 포토/영상 포토 영상 사실은 이렇습니다 국민이 말하는 정책 기고/칼럼 브리핑룸 보도자료 대통령실 브리핑 국무회의 브리핑 e브리핑 TOP 50 KTV 코리아넷 기획&amp;특집 정책포커스 정책오디오 주간정책 마음산책 정책의 재발견 들어볼교양? 아빠육아 할머니가 들려주는 옛 이야기 정책 DB 연설문 전문자료 전자책 공감 부처간행물 카툰공감 국정신문('92-'04) 대한뉴스 대한민국 정부 소개 정부부처 소개 국정과제 대한민국 정부 채널 소개 국민신문고 공감 정책 피플 문화 기고 연재 발간물 정책플러스 퀴즈&amp;이벤트 뉴스레터 정책소셜 기타서비스 공지사항 RSS 서비스 배너달기 메뉴 닫기 검색 바로가기 뉴스 정책뉴스 카드/한컷 포토/영상 사실은 이렇습니다 국민이 말하는 정책 기고/칼럼 브리핑룸 TOP 50 KTV 코리아넷 기획&amp;특집 정책포커스 정책오디오 정책 DB 연설문 전문자료 전자책 국정신문('92-'04) 대한뉴스 대한민국 정부 소개 정부부처 소개 국정과제 대한민국 정부 채널 소개 국민신문고 공감 정책 피플 문화 기고 연재 발간물 정책플러스 퀴즈&amp;이벤트 뉴스레터 정책소셜 기타서비스 공지사항 RSS 서비스 배너달기 정책오디오 img-news 홈으로 〉 뉴스 〉 브리핑룸 〉 보도자료 콘텐츠 영역 국토교통부·제주특별자치도 협업 - 제주도, “녹색 건축+녹색 관광” 선도한다! 그린리모델링·도시재생 연계…지역경제 활성화 기대 2015.01.15 국토교통부 글자크게 글자작게 인쇄 목록 첨부파일 150116(조간) 그린리모델링 및 제로에너지빌딩 협약체결 추진(녹색건축과).hwp 다운로드 바로보기 150116(조간) 그린리모델링 및 제로에너지빌딩 협약체결 추진(녹색건축과).pdf 다운로드 바로보기 국토교통부(장관 서승환)와 제주특별자치도(지사 원희룡)는 제주 원도심지역의 노후건축물에 대한 그린리모델링을 통해 자연과 문화가 어우러지는 녹색도시를 조성하기 위한 협약*을 오는 1월 16일, 서울세관에서 체결한다고 밝혔다. * 국토부-제주자치도 간 협약식 : ‘15.1.16(금) 10:00∼10:35, 서울본부세관 이번 협약은 국토교통부의 ‘그린리모델링 사업’과 제주특별자치도의 ‘원도심 도시재생사업’간 연계를 통해 녹색건축물을 전국적으로 확산하기 위한 계기를 마련하고, 제주도를 녹색도시로 조성하여 지역경제 활성화에도 기여할 것으로 기대된다. 국토교통부에서 추진하고 있는 그린리모델링 사업은 정부의 이자지원을 통해 국민들이 초기 공사비용에 대한 부담 없이 창호교체 등 건물성능 개선을 추진할 수 있도록 지원하는 제도로 건물 에너지 비용 절감뿐만 아니라 쾌적한 실내 환경 조성에도 기여하고 있다. 특히, 2014년 총 352건(사업비 규모 557억, ‘14.4월 최초시행)의 그린리모델링 이자지원 사업을 선정하였을 정도로 국민들의 큰 관심을 받고 있으며, 201개의 그린리모델링 사업자를 육성하여 지역경기 활성화 및 고용창출에 기여하고 있다. 제주특별자치도의 공약사업인 원도심 도시재생사업은 제주 읍성, 제주관아 등의 역사문화자원을 복원하고, 노후건축물과 기반시설을 개선하여 낙후된 원도심을 관광자원으로 개발하는 것이다. 국토부-제주특별자치도간 MOU의 세부적인 내용은 다음과 같다. 국토교통부는 제주특별자치도 지역의 그린리모델링 활성화를 위해 공공 부문 시범사업 추진을 지원하고, 기술 및 정책적 지원을 위해 노력한다. 국토교통부는 제주특별자치도에 대한 건물에너지 통합관리시스템을 구축하여 제주특별자치도에 종합적인 건축물 에너지정보를 제공한다. 제주특별자치도는 원도심 그린리모델링을 활성화하기 위한 도시재생정책 및 실행계획을 수립·추진하여 녹색도시 조성에 앞장선다. 제주특별자치도는 녹색건축물 확대보급을 위해 공공건축물 그린리모델링 사업 발굴에 힘쓰며, 지역 특성에 적합한 녹색건축물 설계기준을 수립한다. 또한, 제로에너지빌딩 조기 활성화 및 민간 부문 확산을 유도하기 위해 국토교통부(제로에너지빌딩 지원센터)와 사업시행자간 선도형 제로에너지빌딩 시범사업 세부이행협약도 체결될 예정*이다. * 제로에너지빌딩 시범사업 업무협력 협약식 : ‘15.1.16(금) 11:00∼11:30, 서울본부세관 그리고, 시범사업에 대한 체계적인 지원 및 성공적 운영을 위해 제로에너지빌딩 지원센터(한국건설기술연구원, 에너지관리공단)에 대한 센터 지정식도 협약식과 동시에 진행될 예정이다. &lt;제로에너지빌딩 시범사업 세부이행협약 개요&gt; · (체결주체) 국토교통부(제로에너지빌딩 지원센터) - 사업시행자 · (시범사업) 진천군 제로에너지 시범단지, 장안 e-Plus Housing, 행복도시1-1 생활권, KCC 서초사옥 별관, 한국에너지플러스산업협회 복합문화관 · (협약내용) 시범사업의 원활한 추진을 위한 세부적 이행계획 및 내용 국토부와 제주특별자치도는 금번 협약을 통해 68조 원 규모인 그린리모델링 시장이 확대되고 제주도의 지역경제가 활성화될 것으로 기대한다. 향후 제주다움이 깃든 녹색도시를 조성하기 위해 다양한 지원 방안을 함께 마련해 나갈 계획이다. “이 자료는 국토교통부의 보도자료를 전재하여 제공함을 알려드립니다.” 운영원칙 열기 정책브리핑 게시물 운영원칙에 따라 다음과 같은 게시물은 삭제될 수 있습니다. 1. 타인의 메일주소, 전화번호, 주민등록번호 등의 개인정보 또는 해당 정보를 게재하는 경우 2. 확인되지 않은 내용으로 타인의 명예를 훼손시기는 경우 3. 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 4. 욕설 및 비속어의 사용 및 특정 인종, 성별, 지역 또는 특정한 정치적 견해를 비하하는 용어를 게시하는 경우 5. 불법복제, 바이러스, 해킹 등을 조장하는 내용인 경우 6. 영리를 목적으로 하는 광고 또는 특정 개인(단체)의 홍보성 글인 경우 7. 타인의 저작물(기사, 사진 등 링크)을 무단으로 게시하여 저작권 침해에 해당하는 글 8. 범죄와 관련있거나 범죄를 유도하는 행위 및 관련 내용을 게시한 경우 9. 공인이나 특정이슈와 관련된 당사자 및 당사자의 주변인, 지인 등을 가장 또는 사칭하여 글을 게시하는 경우 10. 해당 기사나 게시글의 내용과 관련없는 특정 의견, 주장, 정보 등을 게시하는 경우 11. 동일한 제목, 내용의 글 또는 일부분만 변경해서 글을 반복 게재하는 경우 12. 기타 관계법령에 위배된다고 판단되는 경우 13. 수사기관 등의 공식적인 요청이 있는 경우 운영원칙 닫기 텍스트 데이터는 공공누리 출처표시의 조건에 따라 자유이용이 가능합니다. 단, 사진, 이미지, 일러스트, 동영상 등의 일부 자료는 문화체육관광부가 저작권 전부를 갖고 있지 아니하므로, 자유롭게 이용하기 위해서는 반드시 해당 저작권자의 허락을 받으셔야 합니다. 공공누리가 부착되지 않은 자료는 담당자와 사전에 협의한 이후에 사용하여 주시기 바랍니다. 저작권정책 담당자안내 사실은 이렇습니다 외교부 IRA는 BBB를 수정한 새로운 내용의 법률 기획재정부 공공기관 혁신, 각 기관 특성·의견 충분히 반영해 추진 중 사실은 이렇습니다 더보기 많이 본 뉴스TOP10 1 2분기 손실보상 29일부터 신청·지급…65만곳에 8900억원 2 지방공무원도 모바일 공무원증 쓴다…온라인 신원증명 가능 3 ATM 무통장입금 한도 ‘100만→50만원’ 축소…“보이스피싱 근절” 4 건강한 혈관 만들기 5계명 5 보고서 잘쓰는 사람, 부럽지가 않어 6 10월 1일부터 ‘입국 후 PCR’ 해제…4일부터 요양병원 접촉면회 7 올 겨울 에너지 사용량 10% 절감…절약운동 전개 8 가을 단풍 10월 하순 절정 이룬다…지리산 20일로 가장 빨라 9 퇴직공무원도 적극행정 소송지원 대상에 포함된다 10 ‘국내 탄소배출 측정값’ 국제통용 추진…인프라도 확충 많이 본 뉴스 더보기 국민이 말하는 정책 핀테크(fintech), 금융의 경계를 허물다! 내용 더보기 국민이 말하는 정책 더보기 최신뉴스 IRA는 BBB를 수정한 새로운 내용의 법률 공공기관 혁신, 각 기관 특성·의견 충분히 반영해 추진 중 9월 30일부터 자영업자·소상공인의 저금리대출 전환 신청·접수 ‘국내 탄소배출 측정값’ 국제통용 추진…인프라도 확충 ‘코로나19 대응’ 정책포커스 10월 1일부터 ‘입국 후 PCR’ 해제…4일부터 요양병원 접촉면회 ‘코로나19 대응’ 정책포커스 더보기 기고/칼럼 개방된 청와대, 국격의 상징이자 세계적 명소로 거듭나길 정책기고 임업직불제, 임업인 소득안정·산림 공익기능 증진 기대 정책기고 기고/칼럼 더보기 오늘의 포토 “한국처럼 백신 만들고 싶어요” 오늘의 포토 더보기 페이스북 트위터 밴드 카카오톡 카카오스토리 즐겨찾기 URLURL 복사 보고서 쓸 때 4가지만 기억하세요! 정선으로 떠나는 ‘디지털 단식’ 여행 가을철 집안 습도 관리 방법 4가지 2020년 우리나라 사망 원인 2위 ‘심장 질환’ ‘N잡러 시대’ 어떤 스타트업들이 뛰고 있나 이 집으로 해주세요! 법나들이 공저자가 뭐라고 이건희 컬렉션 2024년까지 지역순회전 반려동물 장례, 친환경 ‘수분해장’ 가능해요! 잠실에서 여의도까지 5분 만에 갈 수 있다? 개인정보처리방침 저작권정책 이메일 수집거부 운영자에게 30119 세종특별자치시 갈매로 388 문화체육관광부전화 : 044-203-3555팩스 : 044-203-3488대표메일 : Webmaster@korea.kr Copyrightⓒ Ministry of Culture, Sports and Tourism. Republic of Korea. Some Rights reserved. 페이스북 바로가기 트위터 바로가기 네이버포스트 바로가기 유튜브 바로가기 인스타그램 바로가기 행정부처 바로가기 상단으로 이동</t>
-  </si>
-  <si>
-    <t>제주도, 올해 1300만 관광객 유치목표...“질적성장 도민소득 ↑” - 아시아투데이 아시아투데이 서울 다른도시17.1℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 23.8℃ 도쿄 26.6℃ 베이징 10.1℃ 자카르타 27.4℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, 올해 1300만 관광객 유치목표...“질적성장 도민소득 ↑” '쌍방울 뇌물 받은 혐의' 이화영 킨텍스 대표 사직서 제출 서울 산악사고 증가세…연중 10월에 가장 많아 2022년 10월 4일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 검색버튼 제주도, 올해 1300만 관광객 유치목표...“질적성장 도민소득 ↑” 기사승인 2015. 01. 04. 09:54 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 원도심 문화재생, 제주문화 세계화, 해외관광시장 다변화, 제주어 보전 육성 등 추진 제주도청0제주도청 전경.제주 고동환 기자 = 제주특별자치도는 새해 문화관광스포츠에 대한 정책방향을 원도심 문화재생, 문화예술의 섬 제주문화 브랜드 세계화, 경제를 키우는 제주형 스포츠대회 육성, 해외관광시장 다변화 등 질적 성장을 유도해 도민소득을 높이는 방향으로 추진한다고 4일 밝혔다.이에 맞춰 도는 먼저 문화분야에는 2015년도 원도심 문화재생 중점추진 과제로 원도심 지역 문화자산과 연계한 문화복합공간으로 조성하기 위해 문화예술의 거리를 조성해 원도심 활성화에 주력한다. 50여년 전통의 탐라문화제를 제주대표축제로 육성해 UCLG(세계지방정부연합)문화분과위원회 제주개최 등 제주문화 브랜드 세계화를 추진한다. 특히 제주의 역사, 학교 중심 제주어 살리기 특성화 교육 등 제주어 보전 육성사업 추진 및 제주학연구 등을 통해 제주의 정체성을 확립하여 나갈 계획이다 관광분야 핵심정책으로는 2015년 관광객 유치목표를 1300만명으로 설정하고 제주를 아시아 최고의 장기체류형 휴양관광지로 조성해 나갈 계획이다.해외시장 다변화를 통해 제주관광의 질적 성장으로 도민소득을 높여 나간다.이에 따라 도민이익 창출을 위한 중문관광단지 매입과 제주관광공사 시내면세점 입점도 추진해 나간다.스포츠산업 분야 중심과제로는 제주의 경제를 키우는 스포츠산업으로 레저, New스포츠, 실버 스포츠 등 제주형 스포츠대회 육성과 골프산업 활성화를 중점 추진해 나갈 계획이다.지난해 5월 구성한 골프관광객 유치 T/F팀 운영을 강화해 올해 25개 국내외 고부가가치 골프대회의 제주 개최를 지원해 나갈 계획이다.또한 제주지역내 사회적 약자인 장애인들의 체육시설 부족과 시설이용 불편 등을 개선하기 위한 스포츠기반 시설을 확충해 나갈 계획이다. 이에 따라 제주 장애인들의 숙원사업인 제주장애인스포츠센터 건립사업을 내년 3월 준공을 목표로 차질 없이 진행해 나갈 계획이다. 고동환 기자 mykdh749@naver.com ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 [단독] ‘힌남노’가 포스코 강타할 때…최정우 회장, 전.. 2 연말인사 앞둔 롯데, 신동빈 회장 ‘주가 관리’ 지시 후.. 3 이재용·손정의, ‘80조 ARM 메가딜’ 해법 촉각 4 현대차그룹, 러시아 ‘사업 중단’ 반 년 넘겨…벌써 순이.. 5 굿바이~ 보령... 충남체육대회 4일간 여정 막 내려 6 ‘3高’ 위기 몰려온다… 사장단 회의 소집한 대기업 ‘비.. 1 YG 측, 블랙핑크 제니·방탄소년단 뷔 사생활 사진 노출.. 2 “임영웅과 데이트 하는 느낌”…‘사랑해 진짜’ 뮤비 10.. 3 개천절 KIA-LG, kt-NC전 우천 취소, 향후 일정.. 4 최지우·이유미·최민호 등 영화 ‘뉴 노멀’, 해외 유명.. 5 ‘응우옌 MVP-김가영 수훈갑’ 신생 하나카드 PBA 전.. 6 애주가 이찬원, ‘톡파원 25시’서 헝가리 술 추천에 ‘.. 오늘의 주요뉴스 北, 이번엔 중거리 탄도미사일 발사…핵실험 임박한 듯 尹 “감사원 독립 헌법기관…대통령 언급 적절치 않아” “말로만 안전투자”…최정우式 ‘현금경영’ 재해 키웠다 재정준칙 없으면 2060년 국민 1인당 나라빚 1억 넘어 황교안 “文, 국민에 무례한 행동 말고 진실규명 협조” 고환율 속 물가 또다시 꿈틀… 힘 잃는 ‘10월 정점론’ 당정 “심야 택시 탄력호출료 확대…곧 정부조직 개편” 여자친구가 거짓말했다고 감금·폭행…20대 남성 체포 北 잇단 미사일 도발에…軍, 괴물미사일 ‘현무’로 맞불 논문 베껴도 ‘솜방망이’ 처벌…서울대 3년간 중징계 ‘0’ 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+    <t>제주도, 구제역 여파 관광지 관람용 우제류 격리조치 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 구제역 여파 관광지 관람용 우제류 격리조치 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 구제역 여파 관광지 관람용 우제류 격리조치 기자명 고나연 기자 입력 2015.01.18 13:09 수정 2015.01.18 13:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도는 전국적 확산일로인 구제역 여파를 차단하기 위해 도내 관광지내 관람용 우제류 221마리를 격리 조치한다고 18일 밝혔다.도에 따르면 지난해 12월 충북 진천에서 최초 발생한 구제역이 올해 충남, 경기, 경북, 세종 등 총 5개 시도, 12개 시군에서 52건이 발생하는 등 타 시도에서 점차 확산되어 가는 양상을 보임에 따라 질병의 유입차단을 위해 이 같이 도내 주요 관광지내 관람용 우제류 가축(소․돼지 등)에 대하여 격리한다.방역조치 강화를 위해 구제역 청정지역 사수를 위한 초강도 특별방역대책 추진계획에 따라 관람객으로부터 구제역 바이러스가 우제류 가축에게 전파시킬 위험이 있어 방역상 격리․사육토록 조치한다. 관계자는 "우제류 가축 격리조치는 관광지내 가축을 건강하고 온전하게 보호해 도민과 관광객에게 다시 볼거리를 제공하기 위한 조치인 만큼 도민과 관광객의 적극적인 협조"를 당부했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>국토교통부·제주특별자치도 협업 - 제주도, “녹색 건축+녹색 관광” 선도한다! - 보도자료 | 브리핑룸 | 뉴스 | 대한민국 정책브리핑 본문 바로가기 메인메뉴 바로가기 이 누리집은 대한민국 공식 전자정부 누리집입니다. 검색어 입력내용삭제 검색 상세검색 Search 검색폼 검색어 입력내용삭제 검색 상세검색열기 검색기간 전체 1주 1달 1년 검색시작년월일입력 시작날짜 달력 팝업 열기 ~ 검색마지막년월일입력 끝날짜 달력 팝업 열기 검색범위 전체 제목 본문 첨부파일 기관별 부처 감사원 고용노동부 과학기술정보통신부 교육부 국가보훈처 국무조정실 국방부 국토교통부 기획재정부 농림축산식품부 문화체육관광부 법무부 법제처 보건복지부 산업통상자원부 식품의약품안전처 여성가족부 외교부 인사혁신처 제20대 대통령실 중소벤처기업부 통일부 해양수산부 행정안전부 환경부 청 경찰청 관세청 국세청 기상청 농촌진흥청 대검찰청 문화재청 방위사업청 병무청 산림청 새만금개발청 소방청 조달청 질병관리청 통계청 특허청 해양경찰청 행정중심복합도시건설청 위원회 개인정보보호위원회 공정거래위원회 국가인권위원회 국민권익위원회 금융위원회 방송통신위원회 원자력안전위원회 중앙선거관리위원회 유형별 정책뉴스 웹툰 카드/한컷 포토 부처동영상 KTV 사실은 이렇습니다 국민이 말하는 정책 기고/칼럼 보도자료 브리핑 정책 오디오 전문자료 연설문 전자책 국정신문 선택한 항목 초기화 상세검색 상세검색 닫기 새출발기금 정신건강 독감 안심전환대출 검색 닫기 페이스북 바로가기 트위터 바로가기 네이버포스트 바로가기 유튜브 바로가기 공직메일 제 20대 대통령실 전체메뉴 Sitemap 뉴스 정책뉴스 카드/한컷 포토/영상 포토 영상 사실은 이렇습니다 국민이 말하는 정책 기고/칼럼 브리핑룸 보도자료 대통령실 브리핑 국무회의 브리핑 e브리핑 TOP 50 KTV 코리아넷 기획&amp;특집 정책포커스 정책오디오 주간정책 마음산책 정책의 재발견 들어볼교양? 아빠육아 할머니가 들려주는 옛 이야기 정책 DB 연설문 전문자료 전자책 공감 부처간행물 카툰공감 국정신문('92-'04) 대한뉴스 대한민국 정부 소개 정부부처 소개 국정과제 대한민국 정부 채널 소개 국민신문고 공감 정책 피플 문화 기고 연재 발간물 정책플러스 퀴즈&amp;이벤트 뉴스레터 정책소셜 기타서비스 공지사항 RSS 서비스 배너달기 메뉴 닫기 검색 바로가기 뉴스 정책뉴스 카드/한컷 포토/영상 사실은 이렇습니다 국민이 말하는 정책 기고/칼럼 브리핑룸 TOP 50 KTV 코리아넷 기획&amp;특집 정책포커스 정책오디오 정책 DB 연설문 전문자료 전자책 국정신문('92-'04) 대한뉴스 대한민국 정부 소개 정부부처 소개 국정과제 대한민국 정부 채널 소개 국민신문고 공감 정책 피플 문화 기고 연재 발간물 정책플러스 퀴즈&amp;이벤트 뉴스레터 정책소셜 기타서비스 공지사항 RSS 서비스 배너달기 정책오디오 img-news 홈으로 〉 뉴스 〉 브리핑룸 〉 보도자료 콘텐츠 영역 국토교통부·제주특별자치도 협업 - 제주도, “녹색 건축+녹색 관광” 선도한다! 그린리모델링·도시재생 연계…지역경제 활성화 기대 2015.01.15 국토교통부 글자크게 글자작게 인쇄 목록 첨부파일 150116(조간) 그린리모델링 및 제로에너지빌딩 협약체결 추진(녹색건축과).hwp 다운로드 바로보기 150116(조간) 그린리모델링 및 제로에너지빌딩 협약체결 추진(녹색건축과).pdf 다운로드 바로보기 국토교통부(장관 서승환)와 제주특별자치도(지사 원희룡)는 제주 원도심지역의 노후건축물에 대한 그린리모델링을 통해 자연과 문화가 어우러지는 녹색도시를 조성하기 위한 협약*을 오는 1월 16일, 서울세관에서 체결한다고 밝혔다. * 국토부-제주자치도 간 협약식 : ‘15.1.16(금) 10:00∼10:35, 서울본부세관 이번 협약은 국토교통부의 ‘그린리모델링 사업’과 제주특별자치도의 ‘원도심 도시재생사업’간 연계를 통해 녹색건축물을 전국적으로 확산하기 위한 계기를 마련하고, 제주도를 녹색도시로 조성하여 지역경제 활성화에도 기여할 것으로 기대된다. 국토교통부에서 추진하고 있는 그린리모델링 사업은 정부의 이자지원을 통해 국민들이 초기 공사비용에 대한 부담 없이 창호교체 등 건물성능 개선을 추진할 수 있도록 지원하는 제도로 건물 에너지 비용 절감뿐만 아니라 쾌적한 실내 환경 조성에도 기여하고 있다. 특히, 2014년 총 352건(사업비 규모 557억, ‘14.4월 최초시행)의 그린리모델링 이자지원 사업을 선정하였을 정도로 국민들의 큰 관심을 받고 있으며, 201개의 그린리모델링 사업자를 육성하여 지역경기 활성화 및 고용창출에 기여하고 있다. 제주특별자치도의 공약사업인 원도심 도시재생사업은 제주 읍성, 제주관아 등의 역사문화자원을 복원하고, 노후건축물과 기반시설을 개선하여 낙후된 원도심을 관광자원으로 개발하는 것이다. 국토부-제주특별자치도간 MOU의 세부적인 내용은 다음과 같다. 국토교통부는 제주특별자치도 지역의 그린리모델링 활성화를 위해 공공 부문 시범사업 추진을 지원하고, 기술 및 정책적 지원을 위해 노력한다. 국토교통부는 제주특별자치도에 대한 건물에너지 통합관리시스템을 구축하여 제주특별자치도에 종합적인 건축물 에너지정보를 제공한다. 제주특별자치도는 원도심 그린리모델링을 활성화하기 위한 도시재생정책 및 실행계획을 수립·추진하여 녹색도시 조성에 앞장선다. 제주특별자치도는 녹색건축물 확대보급을 위해 공공건축물 그린리모델링 사업 발굴에 힘쓰며, 지역 특성에 적합한 녹색건축물 설계기준을 수립한다. 또한, 제로에너지빌딩 조기 활성화 및 민간 부문 확산을 유도하기 위해 국토교통부(제로에너지빌딩 지원센터)와 사업시행자간 선도형 제로에너지빌딩 시범사업 세부이행협약도 체결될 예정*이다. * 제로에너지빌딩 시범사업 업무협력 협약식 : ‘15.1.16(금) 11:00∼11:30, 서울본부세관 그리고, 시범사업에 대한 체계적인 지원 및 성공적 운영을 위해 제로에너지빌딩 지원센터(한국건설기술연구원, 에너지관리공단)에 대한 센터 지정식도 협약식과 동시에 진행될 예정이다. &lt;제로에너지빌딩 시범사업 세부이행협약 개요&gt; · (체결주체) 국토교통부(제로에너지빌딩 지원센터) - 사업시행자 · (시범사업) 진천군 제로에너지 시범단지, 장안 e-Plus Housing, 행복도시1-1 생활권, KCC 서초사옥 별관, 한국에너지플러스산업협회 복합문화관 · (협약내용) 시범사업의 원활한 추진을 위한 세부적 이행계획 및 내용 국토부와 제주특별자치도는 금번 협약을 통해 68조 원 규모인 그린리모델링 시장이 확대되고 제주도의 지역경제가 활성화될 것으로 기대한다. 향후 제주다움이 깃든 녹색도시를 조성하기 위해 다양한 지원 방안을 함께 마련해 나갈 계획이다. “이 자료는 국토교통부의 보도자료를 전재하여 제공함을 알려드립니다.” 운영원칙 열기 정책브리핑 게시물 운영원칙에 따라 다음과 같은 게시물은 삭제될 수 있습니다. 1. 타인의 메일주소, 전화번호, 주민등록번호 등의 개인정보 또는 해당 정보를 게재하는 경우 2. 확인되지 않은 내용으로 타인의 명예를 훼손시기는 경우 3. 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 4. 욕설 및 비속어의 사용 및 특정 인종, 성별, 지역 또는 특정한 정치적 견해를 비하하는 용어를 게시하는 경우 5. 불법복제, 바이러스, 해킹 등을 조장하는 내용인 경우 6. 영리를 목적으로 하는 광고 또는 특정 개인(단체)의 홍보성 글인 경우 7. 타인의 저작물(기사, 사진 등 링크)을 무단으로 게시하여 저작권 침해에 해당하는 글 8. 범죄와 관련있거나 범죄를 유도하는 행위 및 관련 내용을 게시한 경우 9. 공인이나 특정이슈와 관련된 당사자 및 당사자의 주변인, 지인 등을 가장 또는 사칭하여 글을 게시하는 경우 10. 해당 기사나 게시글의 내용과 관련없는 특정 의견, 주장, 정보 등을 게시하는 경우 11. 동일한 제목, 내용의 글 또는 일부분만 변경해서 글을 반복 게재하는 경우 12. 기타 관계법령에 위배된다고 판단되는 경우 13. 수사기관 등의 공식적인 요청이 있는 경우 운영원칙 닫기 텍스트 데이터는 공공누리 출처표시의 조건에 따라 자유이용이 가능합니다. 단, 사진, 이미지, 일러스트, 동영상 등의 일부 자료는 문화체육관광부가 저작권 전부를 갖고 있지 아니하므로, 자유롭게 이용하기 위해서는 반드시 해당 저작권자의 허락을 받으셔야 합니다. 공공누리가 부착되지 않은 자료는 담당자와 사전에 협의한 이후에 사용하여 주시기 바랍니다. 저작권정책 담당자안내 사실은 이렇습니다 환경부 전기차 되팔기 목적 중복계약 방지…성능 좋은 차량에 더 많은 보조금 지급 교육부 외국인학교 교과서 동해·독도 표기 오류시정 지속 노력 사실은 이렇습니다 더보기 많이 본 뉴스TOP10 1 [정책달력] 10월부터 달라집니다 2 여가부 폐지·보훈부 격상·재외동포청 신설…정부조직개편안 3 경상수지 체질 개선에 총력…내년 초까지 18개 신규대책 마련 4 일반대학 21개 첨단 분야 ‘온라인 학사학위’ 가능해진다 5 ‘택시부제’ 50년만에 없앤다…택시기사 파트타임 근무 허용도 6 10월 가볼 만한 곳…정원 따라 떠나는 가을 여행지 6곳 7 25일까지 예정부가세 납부…코로나·태풍피해 사업자는 직권제외 8 수산대전 ‘가을맞이 특별전’ 19일까지…최대 40% 할인 9 폴더 정리할 때 알아두면 좋은 꿀팁! 10 [일상공감365] 만약에 한글이 만들어지지 않았다면 많이 본 뉴스 더보기 국민이 말하는 정책 3년 만에 정상 개최된 전국체육대회 현장 속으로! 내용 더보기 국민이 말하는 정책 더보기 최신뉴스 11일부터 개량백신 접종 시작…건강취약계층부터 순차 시행 전기차 되팔기 목적 중복계약 방지…성능 좋은 차량에 더 많은 보조금 지급 외국인학교 교과서 동해·독도 표기 오류시정 지속 노력 고용부 “공정채용 문화 확산 위해 노력” ‘코로나19 대응’ 정책포커스 11일부터 개량백신 접종 시작…건강취약계층부터 순차 시행 ‘코로나19 대응’ 정책포커스 더보기 기고/칼럼 국가교육위원회 공식 출범에 거는 기대와 제언 정책기고 성실함으로 화려하게 꽃피운 예술성 문화칼럼 기고/칼럼 더보기 오늘의 포토 지금, 감성이 제철! 오늘의 포토 더보기 페이스북 트위터 밴드 카카오톡 카카오스토리 즐겨찾기 URLURL 복사 가을 해안 드라이브 추천코스 충청도 편 완전 개방된 북악산 등산로 200% 즐기기 모르는 돈이 내 통장에?사기이용계좌 예방법 연차에 출근했다면 연차수당 청구할 수 있나요? ‘만’ 나이 ‘알’려주는 ‘남’자 (with. 주종혁, 조복래) 정원 따라 떠나는 가을 여행지 6곳 행안부 선정, ‘찾아가고 싶은 가을 섬’ 9곳 폴더 정리할 때 알아두면 좋은 꿀팁! LOST112에서 지갑 찾았다 해외 6개국 취업 전략·정보 제공‘월드잡 토크 콘서트’ 개인정보처리방침 저작권정책 이메일 수집거부 운영자에게 30119 세종특별자치시 갈매로 388 문화체육관광부전화 : 044-203-3555팩스 : 044-203-3488대표메일 : Webmaster@korea.kr Copyrightⓒ Ministry of Culture, Sports and Tourism. Republic of Korea. Some Rights reserved. 페이스북 바로가기 트위터 바로가기 네이버포스트 바로가기 유튜브 바로가기 인스타그램 바로가기 행정부처 바로가기 상단으로 이동</t>
+  </si>
+  <si>
+    <t>제주도, 올해 1300만 관광객 유치목표...“질적성장 도민소득 ↑” - 아시아투데이 아시아투데이 서울 다른도시12.3℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 21.4℃ 도쿄 24.4℃ 베이징 10℃ 자카르타 27.2℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, 올해 1300만 관광객 유치목표...“질적성장 도민소득 ↑” 혼인신고 8일 만에 이혼 강요…남편 때려 숨지게 한 여성 징역 10년 [발굴] '불공정 약관' 심사 청구 막는 공정위…'약관심사지침' 논란 2022년 10월 11일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 검색버튼 제주도, 올해 1300만 관광객 유치목표...“질적성장 도민소득 ↑” 기사승인 2015. 01. 04. 09:54 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 원도심 문화재생, 제주문화 세계화, 해외관광시장 다변화, 제주어 보전 육성 등 추진 제주도청0제주도청 전경.제주 고동환 기자 = 제주특별자치도는 새해 문화관광스포츠에 대한 정책방향을 원도심 문화재생, 문화예술의 섬 제주문화 브랜드 세계화, 경제를 키우는 제주형 스포츠대회 육성, 해외관광시장 다변화 등 질적 성장을 유도해 도민소득을 높이는 방향으로 추진한다고 4일 밝혔다.이에 맞춰 도는 먼저 문화분야에는 2015년도 원도심 문화재생 중점추진 과제로 원도심 지역 문화자산과 연계한 문화복합공간으로 조성하기 위해 문화예술의 거리를 조성해 원도심 활성화에 주력한다. 50여년 전통의 탐라문화제를 제주대표축제로 육성해 UCLG(세계지방정부연합)문화분과위원회 제주개최 등 제주문화 브랜드 세계화를 추진한다. 특히 제주의 역사, 학교 중심 제주어 살리기 특성화 교육 등 제주어 보전 육성사업 추진 및 제주학연구 등을 통해 제주의 정체성을 확립하여 나갈 계획이다 관광분야 핵심정책으로는 2015년 관광객 유치목표를 1300만명으로 설정하고 제주를 아시아 최고의 장기체류형 휴양관광지로 조성해 나갈 계획이다.해외시장 다변화를 통해 제주관광의 질적 성장으로 도민소득을 높여 나간다.이에 따라 도민이익 창출을 위한 중문관광단지 매입과 제주관광공사 시내면세점 입점도 추진해 나간다.스포츠산업 분야 중심과제로는 제주의 경제를 키우는 스포츠산업으로 레저, New스포츠, 실버 스포츠 등 제주형 스포츠대회 육성과 골프산업 활성화를 중점 추진해 나갈 계획이다.지난해 5월 구성한 골프관광객 유치 T/F팀 운영을 강화해 올해 25개 국내외 고부가가치 골프대회의 제주 개최를 지원해 나갈 계획이다.또한 제주지역내 사회적 약자인 장애인들의 체육시설 부족과 시설이용 불편 등을 개선하기 위한 스포츠기반 시설을 확충해 나갈 계획이다. 이에 따라 제주 장애인들의 숙원사업인 제주장애인스포츠센터 건립사업을 내년 3월 준공을 목표로 차질 없이 진행해 나갈 계획이다. 고동환 기자 mykdh749@naver.com ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 북한, 전투기 150대 동시출격…군, F-35A로 맞대응 2 野 “한동훈 美 출장에 현직 검사 동행”…韓 “실무자 수.. 3 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 4 삼성전자 “우크라 지사, 미사일 직격 면해… 인명 피해.. 5 ‘음주측정 불응·경찰폭행’ 장용준 14일 대법 선고 6 “시장 저평가 탈출할까”…목표주가에 못미친 종목들 주목 1 ‘환승연애2’ 정현규♥성해은, 달달함 통했나…티빙 유료가.. 2 임영웅의 기록은 어디까지? 유튜브 조회수 17억 뷰 눈앞.. 3 韓피겨 밝은 미래, 차준환 이어 김예림도 女피겨 챌린저.. 4 ‘김하성 3볼넷 3득점 맹활약’ 샌디에고, 메츠 꺾는 파.. 5 화가가 된 ‘가수 김창환’ 첫 개인전…강남구 ‘연세갤러리.. 6 최영선, ‘리나 살라 갈로 피아노 콩쿠르’서 우승 “한국.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
   </si>
   <si>
     <t>비즈니스포스트</t>
@@ -434,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -466,9 +505,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -478,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -499,9 +535,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -511,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -521,6 +554,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -529,9 +565,6 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -541,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +585,114 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
